--- a/data/trans_orig/ACT_OCIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ACT_OCIO-Clase-trans_orig.xlsx
@@ -7957,12 +7957,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7972,12 +7972,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">

--- a/data/trans_orig/ACT_OCIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ACT_OCIO-Clase-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el tiempo libre en Andalucia</t>
+          <t>Actividad principal en el tiempo libre en Andalucia (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4769,7 +4769,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el tiempo libre en C.Valenciana</t>
+          <t>Actividad principal en el tiempo libre en C.Valenciana (tasa de respuesta: 97,41%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ACT_OCIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ACT_OCIO-Clase-trans_orig.xlsx
@@ -739,12 +739,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55709</t>
+          <t>56723</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>88000</t>
+          <t>89380</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>43121</t>
+          <t>42733</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>68810</t>
+          <t>65886</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -809,12 +809,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>105184</t>
+          <t>106645</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>144452</t>
+          <t>145893</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -824,12 +824,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>21,95%</t>
         </is>
       </c>
     </row>
@@ -852,12 +852,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36638</t>
+          <t>37016</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62573</t>
+          <t>65380</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19452</t>
+          <t>19174</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38364</t>
+          <t>36016</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -922,12 +922,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>61796</t>
+          <t>59143</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>94393</t>
+          <t>92638</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>13,94%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>132668</t>
+          <t>131821</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>169759</t>
+          <t>169357</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -980,12 +980,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>130908</t>
+          <t>129494</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>159205</t>
+          <t>159260</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>43,32%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>53,26%</t>
+          <t>53,28%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>270702</t>
+          <t>271614</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>319322</t>
+          <t>319904</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>48,14%</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79488</t>
+          <t>78014</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>112081</t>
+          <t>113593</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,12 +1113,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>62157</t>
+          <t>61922</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>86152</t>
+          <t>87580</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>145846</t>
+          <t>148778</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>190301</t>
+          <t>190564</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>28,68%</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43865</t>
+          <t>42662</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76785</t>
+          <t>73632</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25197</t>
+          <t>24306</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43340</t>
+          <t>43034</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>73186</t>
+          <t>75233</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>112342</t>
+          <t>112282</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>19,22%</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30341</t>
+          <t>30300</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57321</t>
+          <t>58296</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8750</t>
+          <t>8678</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24779</t>
+          <t>24772</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>42592</t>
+          <t>43115</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>75538</t>
+          <t>73728</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>12,62%</t>
         </is>
       </c>
     </row>
@@ -1534,12 +1534,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>119859</t>
+          <t>121332</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>158712</t>
+          <t>159255</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>106216</t>
+          <t>105397</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>132634</t>
+          <t>133061</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>51,0%</t>
+          <t>51,16%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,12 +1604,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>233538</t>
+          <t>235847</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>281019</t>
+          <t>282109</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>40,38%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>48,11%</t>
+          <t>48,3%</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>70931</t>
+          <t>71669</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103197</t>
+          <t>102308</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>79551</t>
+          <t>79794</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>104730</t>
+          <t>106895</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1697,12 +1697,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>159476</t>
+          <t>157251</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>201497</t>
+          <t>201091</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>34,43%</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8631</t>
+          <t>8684</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>76177</t>
+          <t>76493</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>12903</t>
+          <t>13392</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>11868</t>
+          <t>12464</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>77597</t>
+          <t>76788</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1962,12 +1962,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>13,43%</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44231</t>
+          <t>44902</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2005,12 +2005,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11092</t>
+          <t>10125</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2060,12 +2060,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>6490</t>
+          <t>4371</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>44834</t>
+          <t>45045</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -2103,12 +2103,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>186392</t>
+          <t>183929</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>433573</t>
+          <t>431685</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35028</t>
+          <t>34408</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>51832</t>
+          <t>51726</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>53,21%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>232829</t>
+          <t>230125</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>499338</t>
+          <t>513168</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>87,32%</t>
+          <t>89,74%</t>
         </is>
       </c>
     </row>
@@ -2216,12 +2216,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25289</t>
+          <t>26133</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>183925</t>
+          <t>182778</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2251,12 +2251,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>33947</t>
+          <t>33142</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50367</t>
+          <t>50049</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2266,12 +2266,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>51,71%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>48249</t>
+          <t>40793</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>233732</t>
+          <t>232577</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2301,12 +2301,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>40,67%</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50561</t>
+          <t>48896</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90912</t>
+          <t>90652</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2481,12 +2481,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13935</t>
+          <t>14883</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>62516</t>
+          <t>61385</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2496,12 +2496,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>62758</t>
+          <t>63278</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>139777</t>
+          <t>139689</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
@@ -2559,12 +2559,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>38265</t>
+          <t>38798</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>70925</t>
+          <t>74111</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>8784</t>
+          <t>9297</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>40604</t>
+          <t>40042</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2609,12 +2609,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>42560</t>
+          <t>41476</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>103468</t>
+          <t>100553</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2644,12 +2644,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -2672,12 +2672,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>182793</t>
+          <t>184524</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>232964</t>
+          <t>233352</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2687,12 +2687,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>43,52%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>291628</t>
+          <t>293892</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>538658</t>
+          <t>534045</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2722,12 +2722,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>45,77%</t>
+          <t>46,12%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>83,81%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2742,12 +2742,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>484103</t>
+          <t>485684</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>844104</t>
+          <t>841308</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2757,12 +2757,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>71,94%</t>
+          <t>71,7%</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>185323</t>
+          <t>185135</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>234766</t>
+          <t>236496</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>43,79%</t>
+          <t>44,11%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2820,12 +2820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>70813</t>
+          <t>74712</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>254918</t>
+          <t>252366</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>40,01%</t>
+          <t>39,61%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>219888</t>
+          <t>210670</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>468632</t>
+          <t>467464</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>39,84%</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>14621</t>
+          <t>15969</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44650</t>
+          <t>46457</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3030,12 +3030,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3050,12 +3050,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4102</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>15288</t>
+          <t>15508</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3085,12 +3085,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>21244</t>
+          <t>20879</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>55892</t>
+          <t>53490</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -3128,12 +3128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>11976</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>34989</t>
+          <t>35364</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3143,12 +3143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3163,12 +3163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4612</t>
+          <t>4516</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>15287</t>
+          <t>15077</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3178,12 +3178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3198,12 +3198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>18230</t>
+          <t>19392</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>46932</t>
+          <t>47247</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>59499</t>
+          <t>59072</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>89953</t>
+          <t>87108</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>181689</t>
+          <t>180335</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>300876</t>
+          <t>308672</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3291,12 +3291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>42,73%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>73,14%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>251176</t>
+          <t>251890</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>403466</t>
+          <t>396993</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>39,78%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>63,71%</t>
+          <t>62,69%</t>
         </is>
       </c>
     </row>
@@ -3354,12 +3354,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>75545</t>
+          <t>75194</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>106587</t>
+          <t>106450</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3369,12 +3369,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>50,45%</t>
+          <t>50,39%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>110796</t>
+          <t>103227</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>219028</t>
+          <t>219538</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3404,12 +3404,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>51,9%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3424,12 +3424,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>189228</t>
+          <t>181653</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>312414</t>
+          <t>311649</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3439,12 +3439,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>28,68%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>49,33%</t>
+          <t>49,21%</t>
         </is>
       </c>
     </row>
@@ -3584,12 +3584,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>44746</t>
+          <t>43646</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>85844</t>
+          <t>85064</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>51,48%</t>
+          <t>51,01%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3619,12 +3619,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>25043</t>
+          <t>23117</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>47516</t>
+          <t>46268</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3634,12 +3634,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>75030</t>
+          <t>75002</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>125039</t>
+          <t>125213</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>19,11%</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>17756</t>
+          <t>17669</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>54656</t>
+          <t>53434</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3712,12 +3712,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3732,12 +3732,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>14787</t>
+          <t>15257</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>35714</t>
+          <t>36610</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3747,12 +3747,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3767,12 +3767,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>39445</t>
+          <t>37851</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>81416</t>
+          <t>79237</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3782,12 +3782,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>12,1%</t>
         </is>
       </c>
     </row>
@@ -3810,12 +3810,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>37312</t>
+          <t>36645</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>82153</t>
+          <t>80521</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3825,12 +3825,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
+          <t>48,28%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>160055</t>
+          <t>159844</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>201003</t>
+          <t>201444</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>32,73%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3880,12 +3880,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>207145</t>
+          <t>203343</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>263069</t>
+          <t>263176</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>40,17%</t>
         </is>
       </c>
     </row>
@@ -3923,12 +3923,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6426</t>
+          <t>6356</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>30894</t>
+          <t>31285</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3938,12 +3938,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3958,12 +3958,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>229781</t>
+          <t>229906</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>272101</t>
+          <t>271495</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>47,05%</t>
+          <t>47,08%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>55,72%</t>
+          <t>55,59%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>237280</t>
+          <t>238616</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>293423</t>
+          <t>294252</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4008,12 +4008,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>44,92%</t>
         </is>
       </c>
     </row>
@@ -4153,12 +4153,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>225838</t>
+          <t>216449</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>380112</t>
+          <t>373757</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4168,12 +4168,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4188,12 +4188,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>130414</t>
+          <t>131712</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>210171</t>
+          <t>208059</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>390888</t>
+          <t>389259</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>571657</t>
+          <t>565536</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4238,12 +4238,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>13,21%</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>147522</t>
+          <t>147909</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>262641</t>
+          <t>259167</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4281,12 +4281,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4301,12 +4301,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>75948</t>
+          <t>76437</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>128892</t>
+          <t>129440</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4316,12 +4316,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4336,12 +4336,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>252323</t>
+          <t>244885</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>374190</t>
+          <t>374685</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4351,12 +4351,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,75%</t>
         </is>
       </c>
     </row>
@@ -4379,12 +4379,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>801438</t>
+          <t>805506</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1308811</t>
+          <t>1277828</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -4394,12 +4394,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>62,98%</t>
+          <t>61,48%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4414,12 +4414,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>970675</t>
+          <t>967943</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>1443544</t>
+          <t>1380277</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>44,04%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>65,5%</t>
+          <t>62,63%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>1835665</t>
+          <t>1848478</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>2567300</t>
+          <t>2574890</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>42,87%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>60,13%</t>
         </is>
       </c>
     </row>
@@ -4492,12 +4492,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>395096</t>
+          <t>398743</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>676321</t>
+          <t>675203</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -4507,12 +4507,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4527,12 +4527,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>568407</t>
+          <t>606933</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>920825</t>
+          <t>919124</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>41,7%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>1105899</t>
+          <t>1093354</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>1544850</t>
+          <t>1538638</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>35,93%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ACT_OCIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ACT_OCIO-Clase-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>71147</t>
+          <t>73047</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56723</t>
+          <t>58840</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>89380</t>
+          <t>90136</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>53456</t>
+          <t>59898</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>42733</t>
+          <t>48111</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>65886</t>
+          <t>74220</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>124602</t>
+          <t>132945</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>106645</t>
+          <t>114730</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>145893</t>
+          <t>156177</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>21,63%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48589</t>
+          <t>53228</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37016</t>
+          <t>41272</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>65380</t>
+          <t>70654</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27122</t>
+          <t>28554</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19174</t>
+          <t>20320</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36016</t>
+          <t>37994</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>75711</t>
+          <t>81783</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>59143</t>
+          <t>64420</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>92638</t>
+          <t>99699</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>13,81%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>150964</t>
+          <t>168097</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>131821</t>
+          <t>148270</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>169357</t>
+          <t>188336</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>42,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>47,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>144721</t>
+          <t>158435</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>129494</t>
+          <t>142435</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>159260</t>
+          <t>174350</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>48,42%</t>
+          <t>48,36%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>53,28%</t>
+          <t>53,22%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>295685</t>
+          <t>326533</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>271614</t>
+          <t>300843</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>319904</t>
+          <t>351910</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>41,67%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>48,75%</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94934</t>
+          <t>99886</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78014</t>
+          <t>81806</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>113593</t>
+          <t>119248</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1108,32 +1108,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>73602</t>
+          <t>80738</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61922</t>
+          <t>68431</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>87580</t>
+          <t>96322</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1143,32 +1143,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>168536</t>
+          <t>180624</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>148778</t>
+          <t>160003</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>190564</t>
+          <t>204204</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>28,29%</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>365633</t>
+          <t>394258</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>365633</t>
+          <t>394258</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>365633</t>
+          <t>394258</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>664534</t>
+          <t>721884</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>664534</t>
+          <t>721884</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>664534</t>
+          <t>721884</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57474</t>
+          <t>58914</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42662</t>
+          <t>43533</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>73632</t>
+          <t>75065</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33453</t>
+          <t>35090</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24306</t>
+          <t>25619</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43034</t>
+          <t>45139</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>90928</t>
+          <t>94004</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>75233</t>
+          <t>78665</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>112282</t>
+          <t>115209</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>18,25%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41951</t>
+          <t>43380</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30300</t>
+          <t>31259</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>58296</t>
+          <t>60039</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15103</t>
+          <t>18025</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8678</t>
+          <t>11067</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24772</t>
+          <t>28417</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>57054</t>
+          <t>61405</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>43115</t>
+          <t>46231</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>73728</t>
+          <t>78759</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,48%</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>138786</t>
+          <t>150818</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>121332</t>
+          <t>131507</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>159255</t>
+          <t>170752</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>119203</t>
+          <t>131738</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>105397</t>
+          <t>116659</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>133061</t>
+          <t>146569</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>45,91%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>51,16%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>257988</t>
+          <t>282556</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>235847</t>
+          <t>259068</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>282109</t>
+          <t>308258</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>44,76%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>40,38%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>48,3%</t>
+          <t>48,83%</t>
         </is>
       </c>
     </row>
@@ -1642,32 +1642,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>85836</t>
+          <t>91235</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>71669</t>
+          <t>75770</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>102308</t>
+          <t>108815</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1677,32 +1677,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>92322</t>
+          <t>102087</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>79794</t>
+          <t>87988</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>106895</t>
+          <t>117122</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1712,32 +1712,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>178158</t>
+          <t>193322</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>157251</t>
+          <t>169441</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>201091</t>
+          <t>217429</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>34,44%</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1825,17 +1825,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33217</t>
+          <t>37530</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8684</t>
+          <t>26947</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>76493</t>
+          <t>50857</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7375</t>
+          <t>7866</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4115</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>13392</t>
+          <t>14499</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>40592</t>
+          <t>45397</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>12464</t>
+          <t>33663</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>76788</t>
+          <t>60694</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -1985,32 +1985,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17913</t>
+          <t>19344</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>11451</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44902</t>
+          <t>31962</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2020,32 +2020,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>4980</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10125</t>
+          <t>10559</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2055,32 +2055,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>22515</t>
+          <t>24323</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4371</t>
+          <t>15231</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>45045</t>
+          <t>36833</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>9,95%</t>
         </is>
       </c>
     </row>
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>339272</t>
+          <t>108594</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>183929</t>
+          <t>92640</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>431685</t>
+          <t>125676</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>71,51%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>35,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>48,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,32 +2133,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>43424</t>
+          <t>49974</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>34408</t>
+          <t>40318</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>51726</t>
+          <t>59143</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>35,33%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>53,11%</t>
+          <t>53,4%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2168,32 +2168,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>382697</t>
+          <t>158568</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>230125</t>
+          <t>138609</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>513168</t>
+          <t>176485</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>66,92%</t>
+          <t>42,81%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>40,24%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>89,74%</t>
+          <t>47,65%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84031</t>
+          <t>94144</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26133</t>
+          <t>79299</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>182778</t>
+          <t>112391</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>43,29%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42000</t>
+          <t>47930</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>33142</t>
+          <t>38355</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50049</t>
+          <t>57188</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>51,38%</t>
+          <t>51,64%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>126031</t>
+          <t>142074</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>40793</t>
+          <t>124085</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>232577</t>
+          <t>159902</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>43,17%</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>474433</t>
+          <t>259612</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>474433</t>
+          <t>259612</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>474433</t>
+          <t>259612</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>97402</t>
+          <t>110750</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>97402</t>
+          <t>110750</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>97402</t>
+          <t>110750</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>571836</t>
+          <t>370362</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>571836</t>
+          <t>370362</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>571836</t>
+          <t>370362</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2441,22 +2441,22 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>67260</t>
+          <t>73389</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48896</t>
+          <t>55643</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90652</t>
+          <t>96023</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,32 +2476,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38010</t>
+          <t>40880</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14883</t>
+          <t>30555</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>61385</t>
+          <t>54291</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,32 +2511,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>105270</t>
+          <t>114269</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>63278</t>
+          <t>93820</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>139689</t>
+          <t>140272</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>12,74%</t>
         </is>
       </c>
     </row>
@@ -2554,32 +2554,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>51552</t>
+          <t>60094</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>38798</t>
+          <t>43896</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>74111</t>
+          <t>82097</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>23760</t>
+          <t>26327</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>9297</t>
+          <t>18104</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>40042</t>
+          <t>37750</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,32 +2624,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>75311</t>
+          <t>86421</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>41476</t>
+          <t>66261</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>100553</t>
+          <t>108365</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>9,84%</t>
         </is>
       </c>
     </row>
@@ -2667,32 +2667,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208247</t>
+          <t>245474</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184524</t>
+          <t>220157</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>233352</t>
+          <t>272524</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>36,09%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2702,32 +2702,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>408365</t>
+          <t>230269</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>293892</t>
+          <t>209917</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>534045</t>
+          <t>247880</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>64,09%</t>
+          <t>46,92%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>46,12%</t>
+          <t>42,77%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>83,81%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2737,32 +2737,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>616612</t>
+          <t>475743</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>485684</t>
+          <t>443354</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>841308</t>
+          <t>510027</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>52,55%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>71,7%</t>
+          <t>46,34%</t>
         </is>
       </c>
     </row>
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>209097</t>
+          <t>231025</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>185135</t>
+          <t>206800</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>236496</t>
+          <t>259788</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>44,11%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2815,32 +2815,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>167069</t>
+          <t>193273</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>74712</t>
+          <t>175734</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>252366</t>
+          <t>213388</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>35,81%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>376166</t>
+          <t>424298</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>210670</t>
+          <t>393807</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>467464</t>
+          <t>455289</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>41,36%</t>
         </is>
       </c>
     </row>
@@ -2893,17 +2893,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2928,17 +2928,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2963,17 +2963,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1173359</t>
+          <t>1100731</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3010,32 +3010,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>25451</t>
+          <t>25948</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>15969</t>
+          <t>15938</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>46457</t>
+          <t>41103</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,32 +3045,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8999</t>
+          <t>12166</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4241</t>
+          <t>7169</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>15508</t>
+          <t>19763</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,32 +3080,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>34450</t>
+          <t>38115</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>20879</t>
+          <t>26486</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>53490</t>
+          <t>54164</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -3123,32 +3123,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>21268</t>
+          <t>29284</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>18054</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>35364</t>
+          <t>44416</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,32 +3158,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9244</t>
+          <t>11107</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4516</t>
+          <t>6778</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>15077</t>
+          <t>17566</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,32 +3193,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>30512</t>
+          <t>40391</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>19392</t>
+          <t>28095</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>47247</t>
+          <t>59678</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -3236,32 +3236,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>74102</t>
+          <t>88675</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>59072</t>
+          <t>71767</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>87108</t>
+          <t>103866</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,32 +3271,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>225892</t>
+          <t>188151</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>180335</t>
+          <t>171678</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>308672</t>
+          <t>205690</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>53,53%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>73,14%</t>
+          <t>50,67%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,32 +3306,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>299994</t>
+          <t>276826</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>251890</t>
+          <t>252076</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>396993</t>
+          <t>301362</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>41,98%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>38,23%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>62,69%</t>
+          <t>45,71%</t>
         </is>
       </c>
     </row>
@@ -3349,32 +3349,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>90439</t>
+          <t>109473</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>75194</t>
+          <t>94677</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>106450</t>
+          <t>128081</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>50,39%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3384,32 +3384,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>177887</t>
+          <t>194541</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>103227</t>
+          <t>175565</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>219538</t>
+          <t>211941</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>43,25%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>52,21%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3419,32 +3419,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>268326</t>
+          <t>304014</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>181653</t>
+          <t>277167</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>311649</t>
+          <t>328484</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>46,11%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>42,04%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>49,21%</t>
+          <t>49,82%</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>211260</t>
+          <t>253380</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>211260</t>
+          <t>253380</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>211260</t>
+          <t>253380</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3497,17 +3497,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>422022</t>
+          <t>405966</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>422022</t>
+          <t>405966</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>422022</t>
+          <t>405966</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3532,17 +3532,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>633282</t>
+          <t>659345</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>633282</t>
+          <t>659345</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>633282</t>
+          <t>659345</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3579,32 +3579,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>63325</t>
+          <t>66514</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>43646</t>
+          <t>47375</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>85064</t>
+          <t>86102</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>51,01%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3614,32 +3614,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>34366</t>
+          <t>38910</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>23117</t>
+          <t>26989</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>46268</t>
+          <t>52462</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,32 +3649,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>97691</t>
+          <t>105424</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>75002</t>
+          <t>82947</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>125213</t>
+          <t>133133</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>18,64%</t>
         </is>
       </c>
     </row>
@@ -3692,32 +3692,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>33037</t>
+          <t>33176</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>17669</t>
+          <t>18826</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>53434</t>
+          <t>53055</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,32 +3727,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>23476</t>
+          <t>25364</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>15257</t>
+          <t>16649</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>36610</t>
+          <t>39606</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,32 +3762,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>56513</t>
+          <t>58540</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>37851</t>
+          <t>39899</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>79237</t>
+          <t>81870</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>11,46%</t>
         </is>
       </c>
     </row>
@@ -3805,32 +3805,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>55590</t>
+          <t>55428</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>36645</t>
+          <t>37372</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>80521</t>
+          <t>78862</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>33,33%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,32 +3840,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>179582</t>
+          <t>201849</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>159844</t>
+          <t>181018</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>201444</t>
+          <t>225125</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,32 +3875,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>235172</t>
+          <t>257277</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>203343</t>
+          <t>225372</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>263176</t>
+          <t>285975</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>40,04%</t>
         </is>
       </c>
     </row>
@@ -3918,32 +3918,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>14810</t>
+          <t>14379</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6356</t>
+          <t>6820</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>31285</t>
+          <t>28137</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,32 +3953,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>250927</t>
+          <t>278613</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>229906</t>
+          <t>255476</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>271495</t>
+          <t>300752</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>51,38%</t>
+          <t>51,15%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>46,9%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>55,21%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3988,32 +3988,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>265737</t>
+          <t>292991</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>238616</t>
+          <t>264785</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>294252</t>
+          <t>321871</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>40,56%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>45,07%</t>
         </is>
       </c>
     </row>
@@ -4031,17 +4031,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4066,17 +4066,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>488351</t>
+          <t>544736</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>488351</t>
+          <t>544736</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>488351</t>
+          <t>544736</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4101,17 +4101,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>655113</t>
+          <t>714232</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>655113</t>
+          <t>714232</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>655113</t>
+          <t>714232</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4148,32 +4148,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>317874</t>
+          <t>335343</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>216449</t>
+          <t>297399</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>373757</t>
+          <t>374476</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4183,32 +4183,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>175659</t>
+          <t>194811</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>131712</t>
+          <t>170942</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>208059</t>
+          <t>222833</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4218,32 +4218,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>493534</t>
+          <t>530154</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>389259</t>
+          <t>482519</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>565536</t>
+          <t>577842</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>13,77%</t>
         </is>
       </c>
     </row>
@@ -4261,32 +4261,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>214309</t>
+          <t>238506</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>147909</t>
+          <t>200216</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>259167</t>
+          <t>274855</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4296,32 +4296,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>103308</t>
+          <t>114356</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>76437</t>
+          <t>96698</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>129440</t>
+          <t>139710</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,32 +4331,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>317617</t>
+          <t>352862</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>244885</t>
+          <t>312198</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>374685</t>
+          <t>395430</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>9,42%</t>
         </is>
       </c>
     </row>
@@ -4374,32 +4374,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>966960</t>
+          <t>817086</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>805506</t>
+          <t>770034</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1277828</t>
+          <t>867034</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>40,23%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>61,48%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,32 +4409,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>1121187</t>
+          <t>960417</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>967943</t>
+          <t>921655</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>1380277</t>
+          <t>1004330</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>62,63%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,32 +4444,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>2088148</t>
+          <t>1777502</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>1848478</t>
+          <t>1716441</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>2574890</t>
+          <t>1842160</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>48,76%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>43,88%</t>
         </is>
       </c>
     </row>
@@ -4487,32 +4487,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>579146</t>
+          <t>640141</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>398743</t>
+          <t>594565</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>675203</t>
+          <t>684952</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,32 +4522,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>803807</t>
+          <t>897183</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>606933</t>
+          <t>852920</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>919124</t>
+          <t>937743</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,32 +4557,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>1382953</t>
+          <t>1537323</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>1093354</t>
+          <t>1476009</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>1538638</t>
+          <t>1603565</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>36,62%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>38,2%</t>
         </is>
       </c>
     </row>
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>2078290</t>
+          <t>2031075</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>2078290</t>
+          <t>2031075</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>2078290</t>
+          <t>2031075</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4635,17 +4635,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>2203961</t>
+          <t>2166767</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>2203961</t>
+          <t>2166767</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>2203961</t>
+          <t>2166767</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4670,17 +4670,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>4282251</t>
+          <t>4197842</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>4282251</t>
+          <t>4197842</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>4282251</t>
+          <t>4197842</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
